--- a/out/film_evaluation_results.xlsx
+++ b/out/film_evaluation_results.xlsx
@@ -512,16 +512,16 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>更好的翻译：大模型翻译  
-大模型翻译：90分  
-谷歌翻译：80分  
-原因：大模型翻译在准确性和流畅性上表现更佳，尤其在表达“文化具有多层次的结构”时，使用了“multi-layered structure”这一专业术语，清晰且准确。而谷歌翻译在某些地方的用词较为简单，如“the true prototype of China cannot be found”相较于“大模型翻译”的“no true representation of China to be found”显得不够严谨。此外，大模型翻译在语气和细节的保留上更为到位，整体更符合原文的深度和复杂性。</t>
+大模型翻译：85分  
+谷歌翻译：75分  
+原因：大模型翻译在准确性和流畅性上表现更佳，尤其在细节的保留上更为到位。例如，“文化具有多层次的结构”在大模型翻译中被准确翻译为“Culture has a multi-layered structure”，而谷歌翻译则略显简化。此外，大模型翻译在语气上更贴近原文的表达方式，使得整体阅读体验更自然。谷歌翻译虽然也传达了大部分信息，但在某些句子的结构上显得较为生硬，如“这格式才有可能用得上”翻译为“this format can only be used”时，缺乏了原文的语气和细腻感。</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -569,7 +569,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，尤其在细节上更为精准。例如，“作品名称及灵感来自'多啦A梦'电影的片名”翻译为“The title and inspiration for the work come from the title of a 'Doraemon' movie”更为自然，而谷歌翻译的“名字和灵感的作品来自电影'多啦A梦'的标题”略显生硬。此外，大模型翻译在语气和细节的保留上做得更好，如“我就是带着这样的心情，去做这个展览”翻译为“I approached this exhibition with that mindset”更能传达原文的情感。谷歌翻译在某些地方的用词较为直白，缺乏一定的艺术感。</t>
+原因：大模型翻译在准确性和流畅性上表现更佳，尤其在细节处理上更为到位，例如“the title and inspiration for the work come from the title of a 'Doraemon' movie”比谷歌翻译的“the name and inspiration of the work comes from the title of the movie 'Doraemon'”更自然且准确。此外，大模型翻译在语气和细节保留上也更为细腻，如“the greatest barrier may be one's own fear of darkness and the unknown”更好地传达了原文的含义。谷歌翻译在某些句子结构上显得较为生硬，影响了整体的流畅性。</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -623,7 +623,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，尤其在“而不是简单地生搬硬套”翻译为“rather than merely imposing it without context”时，准确传达了原文的意思。而谷歌翻译在“生搬硬套”部分使用了“copying and pasting”，虽然意思相近，但未能完全体现原文的深意。此外，大模型翻译在句子结构上更为自然，整体阅读体验更佳。</t>
+原因：大模型翻译在准确性和流畅性上表现更佳，尤其在“而不是简单地生搬硬套”翻译为“rather than merely imposing it without context”时，传达了更深层的含义。而谷歌翻译在“简单复制或者挪用”部分翻译为“simple copy or misappropriation”，虽然意思相近，但“misappropriation”一词在此语境下显得不够贴切，影响了整体的流畅性和准确性。</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -676,7 +676,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，使用了更为恰当的词汇和句式，例如将“壮乡和韵”翻译为“Zhuangxiang and Harmony”，而谷歌翻译则使用了“Zhuang Country Harmony”，显得不够准确。此外，大模型翻译在细节上更为丰富，如“artistic strengths and characteristics of the Guangxi Symphony Orchestra”比谷歌翻译的“artistic expertise and characteristics”更能传达原文的深意。谷歌翻译在某些句子结构上显得较为生硬，影响了整体的流畅性。</t>
+原因：大模型翻译在准确性和流畅性方面表现更佳，使用了更为专业的术语和句式，如“artistic strengths and characteristics”更准确地传达了原文的含义，而谷歌翻译在某些地方使用了较为直白的表达，如“the main value of 'Zhuangxiang Heyun'”显得稍显简单。此外，大模型翻译在细节上更为丰富，能够更好地保留原文的语气和文化内涵。</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -737,7 +737,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：90分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性方面表现更佳，能够准确传达原文的含义，例如“他将一生奉献给人民文艺事业”被翻译为“dedicating his life to the cause of people's literature and art”，保留了原意且表达自然。而谷歌翻译在某些地方显得较为生硬，例如“这部戏的受欢迎程度也远远超出演员的预期”翻译为“the popularity of the play far exceeded the expectations of the performers”虽然意思相近，但缺乏一些细腻的表达。大模型翻译在细节和语气的保留上也更为出色。</t>
+原因：大模型翻译在准确性和流畅性方面表现更佳，能够较好地传达原文的含义和语气。例如，"he acted in or directed dozens of outstanding literary works"清楚地表达了蓝天野的成就，而谷歌翻译在某些地方的用词较为简单，未能充分体现原文的细节和深度。此外，大模型翻译在专业术语的使用上更为恰当，如“underground courier for the Party”准确传达了蓝天野在抗战期间的角色。</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -803,16 +803,16 @@
       <c r="D7" t="inlineStr">
         <is>
           <t>更好的翻译：大模型翻译  
-大模型翻译：85分  
-谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，尤其在表达“以平常心对待了”时使用了“approach it with a calm mind”，更符合英语的表达习惯。而谷歌翻译在“我不是在拍‘命题作文’”的翻译中使用了“propositional composition”，虽然意思相近，但不够自然，且在“我希望专家学者能够‘高抬贵手’”的翻译中未能准确传达原意，导致语气有所减弱。</t>
+大模型翻译：8分  
+谷歌翻译：6分  
+原因：大模型翻译在准确性和流畅性上表现更佳，尤其在“我希望专家学者对我们高抬贵手”这一句中，使用了“exercise restraint”更好地传达了原意，而谷歌翻译的“show mercy”则略显不够正式。此外，大模型翻译在语气和细节的保留上也更为到位，如“walking on thin ice, with great trepidation”更准确地传达了胡玫的情感状态。谷歌翻译在某些地方的用词较为直白，缺乏一些细腻的表达。</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更好，能够更准确地传达原文的细节和语气。例如，“这块钢铁是怎样炼成的”翻译为“how this 'iron' was forged”，更符合原意。而谷歌翻译在某些地方使用了较为直白的表达，如“the core of education is not to impart knowledge, but to learn how to be a good person”显得较为生硬，缺乏原文的细腻感。</t>
+原因：大模型翻译在准确性和流畅性方面表现更佳，尤其在细节的处理上更为细腻。例如，“这块钢铁是怎样炼成的”翻译为“how this 'iron' was forged”更好地传达了原文的意图，而谷歌翻译则使用了“how this steel is tempered”，略显生硬。此外，大模型翻译在语气和风格上更贴近原文，保持了专业性和连贯性。谷歌翻译在某些地方的表达较为直白，缺乏一定的文学性。</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -935,7 +935,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，尤其在表达“致命吸引力”时使用了“irresistible allure”，更贴切原意。而谷歌翻译在“致命吸引力”处翻译为“fatal attraction”，虽然字面上正确，但在语境中显得不够自然。此外，大模型翻译在细节上更为细腻，如“wild growth”一词的使用，传达了更丰富的情感和意境。</t>
+原因：大模型翻译在准确性和流畅性上表现更佳，尤其在表达“致命吸引力”时使用了“irresistible allure”，更符合原意。而谷歌翻译在“致命吸引力”处翻译为“fatal attraction”，虽然字面上正确，但语气上显得不够自然。此外，大模型翻译在句子结构上更为复杂和优雅，如“merging their artistic inspirations with the city”比谷歌翻译的“coexist with the city with artistic inspiration”更为流畅。</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1007,15 +1007,15 @@
         <is>
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
-谷歌翻译：70分  
-原因：大模型翻译在准确性和流畅性上表现更佳，尤其在对文化内涵的传达上更为细致，如“the relationship between Chinese calligraphy and painting”比谷歌翻译的“calligraphy and painting from the same source”更能体现原文的深意。此外，大模型翻译在句式结构上更为自然，避免了谷歌翻译中“每个字就是一幅画”翻译为“Every word is a painting”时的生硬感。谷歌翻译在某些地方使用了较为直白的表达，缺乏对原文语气的保留。</t>
+谷歌翻译：75分  
+原因：大模型翻译在准确性和流畅性上表现更佳，尤其在对文化背景的理解和表达上更为细致，如“the relationship between Chinese calligraphy and painting”比谷歌翻译的“calligraphy and painting from the same source”更符合原意。此外，大模型翻译在句子结构上更自然，避免了谷歌翻译中“每个字就是一幅画”翻译为“Every word is a painting”的生硬表达。谷歌翻译虽然基本传达了原意，但在某些细节上缺乏深度和准确性。</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>85</v>
       </c>
       <c r="F10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1061,16 +1061,16 @@
       <c r="D11" t="inlineStr">
         <is>
           <t>更好的翻译：大模型翻译  
-大模型翻译：85分  
-谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性方面表现更佳，尤其在细节的保留上更为到位。例如，“士官长的内心”翻译为“the heart of the sergeant”更符合原意，而谷歌翻译则使用了“the inner world”，略显模糊。此外，大模型翻译在语气上更贴近原文，使用了“the war, it turns out, has not truly ended”这样的表达，增强了叙述的连贯性。谷歌翻译在某些句子结构上显得较为生硬，影响了整体的流畅性。</t>
+大模型翻译：8分  
+谷歌翻译：6分  
+原因：大模型翻译在准确性和流畅性上表现更佳，尤其在“这部电影就是关于一名丹麦士官长指挥,监督一群德国少年兵清理海岸地雷的故事”中，使用了“this film tells the story of a Danish sergeant major who commands and supervises a group of German boy soldiers”，更好地传达了原文的意思。谷歌翻译在某些句子中显得较为生硬，如“这件意外惹怒了士官长,开始凌虐那名少年,如同以往”未能有效传达情感的复杂性。</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性方面表现更佳，尤其在专业术语的使用上，如“top snowboarder”和“executive producer”更符合行业标准。谷歌翻译在某些地方使用了较为直白的表达，例如“wild man”来描述角色，缺乏一定的专业性和细腻度。此外，大模型翻译在保留原文的语气和细节方面做得更好，整体更符合英文读者的阅读习惯。</t>
+原因：大模型翻译在准确性和流畅性上表现更佳，尤其在专业术语的使用上更为精准，如“top snowboarder”与“professional athlete”的表述清晰且符合语境。而谷歌翻译在某些地方使用了较为直白的翻译，如“wild man”来描述角色，未能传达出原文的细腻含义。此外，大模型翻译在句子结构上更为自然，整体阅读体验更佳。</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1154,7 +1154,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性方面表现更佳，尤其在专业术语的使用上更为准确，如“Ninth War Zone”与“11th Army”的翻译均符合历史背景。而谷歌翻译在某些地方使用了较为直白的表达，如“the Chinese Communist Party and the Chinese Communist Party jointly resisted the Japanese”，重复了“Chinese Communist Party”，导致语义不清。此外，谷歌翻译在一些句子的结构上显得较为生硬，影响了整体的流畅性。</t>
+原因：大模型翻译在准确性和流畅性上表现更佳，尤其在专业术语的使用上更为准确，如“Ninth War Zone”与“11th Army”的翻译更符合历史背景。而谷歌翻译在某些地方如“the Chinese Communist Party and the Chinese Communist Party”重复了同一党派，造成了混淆，且整体语句结构略显生硬，影响了流畅性。</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1200,16 +1200,16 @@
       <c r="D14" t="inlineStr">
         <is>
           <t>更好的翻译：大模型翻译  
-大模型翻译：90分  
-谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，尤其在专业术语的使用上更为恰当，例如将“听觉障碍”翻译为“auditory impairment”，而谷歌翻译使用了“hearing impairment”，虽然也正确，但不够专业。此外，大模型翻译在句式结构上更为自然，例如“the absence of auditory experiences”比谷歌翻译的“the lack of hearing”更为贴切，保留了原文的细腻表达。谷歌翻译在某些地方显得较为直白，缺乏原文的细腻感。</t>
+大模型翻译：8分  
+谷歌翻译：6分  
+原因：大模型翻译在准确性和流畅性上表现更佳，尤其在用词上更为精准，如将“听觉的阙如”翻译为“absence of auditory experiences”，而谷歌翻译则使用了“lack of hearing”，稍显简单。此外，大模型翻译在保留原文的细节和语气方面也更为成功，例如对“历史的业障”翻译为“historical 'karmic debt'”，更好地传达了原文的深意。谷歌翻译在某些地方的表达较为直白，缺乏一定的文学性。</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，尤其在细节处理上更为细腻，如“the dialectical relationship between the martial world and modern society”准确传达了原文的“江湖与现代社会的辩证关系”，而谷歌翻译则使用了“rivers and lakes”，未能准确传达原意。此外，大模型翻译在语句结构上更为自然，整体阅读体验更佳。谷歌翻译在某些地方显得较为生硬，如“the casual street characters”未能准确传达“散淡的市井人物”的含义。</t>
+原因：大模型翻译在准确性和流畅性上表现更佳，尤其在对“江湖与现代社会的辩证关系”的描述中，使用了“dialectical relationship”这一更为精准的术语，而谷歌翻译则使用了“rivers and lakes”，未能准确传达原意。此外，大模型翻译在细节保留方面更为细腻，如对“极度写实”的翻译为“extremely realistic”，更符合原文语境。谷歌翻译在某些地方的表达较为生硬，如“earth-shaking changes”显得不够自然。</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1316,7 +1316,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性方面表现更佳，特别是在术语的使用上，如“jiutai”被翻译为“vocal accompaniment”而不是“Jiyu”，更符合专业术语的使用。此外，大模型翻译在句子结构上更为自然，避免了谷歌翻译中“the empty stage is only decorated with a tall pine tree and a few green bamboos”这种略显生硬的表达。谷歌翻译在某些地方的用词不够准确，如“Zashi”翻译为“Zashi”而未提供解释，可能会让读者感到困惑。</t>
+原因：大模型翻译在准确性和专业性上表现更佳，尤其在术语使用上，如“jiutai”翻译为“vocal accompaniment”更为准确，而谷歌翻译将其翻译为“合唱伴奏”，略显不准确。此外，大模型翻译在流畅性上也更自然，句子结构更符合英语表达习惯，例如“the minimalist style and stylized movements are exceptionally graceful and elegant”比谷歌翻译的“the minimalist style and stylized movements of Noh are extremely beautiful and elegant”更为流畅。</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1370,16 +1370,16 @@
       <c r="D17" t="inlineStr">
         <is>
           <t>更好的翻译：大模型翻译  
-大模型翻译：85分  
-谷歌翻译：70分  
-原因：大模型翻译在准确性和流畅性上表现更佳，能够更好地传达原文的含义。例如，"demonstrating their deep-rooted connection and close relationship with Yi Wanran"比谷歌翻译中的"to show their origin and close relationship with Yi Wanran"更为准确和自然。此外，大模型翻译在细节上更为丰富，如对角色个性和整体性的描述，增强了原文的文学性和专业性。谷歌翻译在某些地方使用了较为直白的表达，缺乏一定的文艺性和流畅性。</t>
+大模型翻译：8.5分  
+谷歌翻译：6.5分  
+原因：大模型翻译在准确性和流畅性上表现更佳，使用了更专业的术语和句式，如“demonstrating their deep-rooted connection”比谷歌翻译的“show their origin and close relationship”更为准确和自然。此外，大模型翻译在细节上更为丰富，如对角色个性的描述，增强了原文的文学性。而谷歌翻译在某些地方显得较为直白，缺乏细腻的表达。</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1423,16 +1423,16 @@
       <c r="D18" t="inlineStr">
         <is>
           <t>更好的翻译：大模型翻译  
-大模型翻译：90分  
-谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，能够更好地传达原文的深意，例如“the dialogues in 'In Search of Lost Time' are particularly striking”比谷歌翻译中的“the lines and dialogues of 'Remembrance of Things Past' are even more surprising”更贴切。此外，大模型翻译在表达上更自然，使用了“captivating and remarkable film”这样的词汇，增强了语句的优美感。而谷歌翻译在某些地方显得较为直译，缺乏流畅性，例如“the life of the protagonist Marcel is intricately and intertwined”中的“intricately and intertwined”用词不当，导致语义重复。</t>
+大模型翻译：8分  
+谷歌翻译：6分  
+原因：大模型翻译在准确性和流畅性方面表现更佳，尤其在表达复杂概念时使用了更合适的词汇和句式，例如“encapsulates the essence of recalling everything from one's life at the brink of death”比谷歌翻译的“是对这一生的一切的追忆”更为精准和优雅。此外，大模型翻译在逻辑连贯性和语气上也更好地保留了原文的细腻感。谷歌翻译虽然传达了基本意思，但在某些地方显得较为直白，缺乏文学性。</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1471,16 +1471,16 @@
       <c r="D19" t="inlineStr">
         <is>
           <t>更好的翻译：大模型翻译  
-大模型翻译：85分  
-谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性上表现更佳，使用了更贴切的表达，如“artistic genre”而非“art category”，使得译文更符合英语的习惯用法。此外，大模型翻译在细节上更为细腻，例如“the uniqueness of character design”比谷歌翻译的“the uniqueness of image modeling”更能准确传达原意。谷歌翻译虽然基本传达了原文的意思，但在某些地方显得较为生硬，如“wonderful flower”不如“大模型翻译”的“unique gem”更具文艺感。</t>
+大模型翻译：90分  
+谷歌翻译：80分  
+原因：大模型翻译在准确性和流畅性上表现更佳，尤其在细节处理上更为到位，例如“charming and whimsical artworks”更好地传达了“童趣十足,古拙可爱的艺术作品”的含义。而谷歌翻译在一些地方使用了较为直白的表达，如“wonderful flower”来翻译“奇葩”，显得不够生动。此外，大模型翻译在语气和细节的保留上更为细腻，整体更符合原文的风格。</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F19" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
           <t>更好的翻译：大模型翻译  
 大模型翻译：85分  
 谷歌翻译：75分  
-原因：大模型翻译在准确性和流畅性方面表现更佳，尤其在处理复杂句子时更能保持原意，例如“这些新举措与信号被刘野夫编织在其最新录像作品‘老刘一枕梦黄粱’中, 以‘新’喻‘旧’”的翻译较为准确且自然。而谷歌翻译在某些地方使用了较为生硬的表达，如“这类信息总是令人惊叹, 但并不鲜见”翻译为“这种信息总是惊人，但并不罕见”，显得不够流畅。</t>
+原因：大模型翻译在准确性和流畅性方面表现更佳，尤其在细节上更为严谨，例如“the Guqin piece 'Flowing Water' by Guan Pinghu”比谷歌翻译的“Guan Pinghu's version of the ancient guqin piece 'Flowing Water'”更为准确，避免了“版本”一词可能引起的误解。此外，大模型翻译在语气和表达上更贴近原文的风格，使得整体阅读体验更为自然。谷歌翻译虽然也传达了大部分信息，但在某些句子的结构上显得较为生硬，如“the adherence to the local sage culture of traditional Chinese society that he represented is now new in the current era”不够清晰。</t>
         </is>
       </c>
       <c r="E20" t="n">
